--- a/PI02-ANALISTA_DE_INVERSION/ROE/kpi_amazon.xlsx
+++ b/PI02-ANALISTA_DE_INVERSION/ROE/kpi_amazon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03a7e76c497c2c87/Escritorio/PI03-ANALISTA_DE_INVERSION/ROE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03a7e76c497c2c87/Escritorio/PI02-ANALISTA_DE_INVERSION/ROE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{5B669158-E99B-4DF5-A197-55AC503850BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41D20C11-5F7C-4830-9267-7995702385DE}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{5B669158-E99B-4DF5-A197-55AC503850BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{954FBEF4-848D-426C-AC1A-908B5A897110}"/>
   <bookViews>
-    <workbookView xWindow="29295" yWindow="2040" windowWidth="27000" windowHeight="12390" xr2:uid="{4D695BD8-830F-477C-A309-604CD38D1807}"/>
+    <workbookView xWindow="29280" yWindow="480" windowWidth="27000" windowHeight="12390" xr2:uid="{4D695BD8-830F-477C-A309-604CD38D1807}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>KPI_Amazon</t>
+    <t>Ventas</t>
   </si>
   <si>
-    <t>crecimiento</t>
+    <t>Crecimiento</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Kpi</t>
   </si>
 </sst>
 </file>
@@ -81,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -89,6 +95,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661FEA81-B8A3-495F-A3CA-306FDA190AE0}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,156 +425,226 @@
     <col min="1" max="1" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44966</v>
+        <v>44602</v>
       </c>
       <c r="B2" s="2">
-        <v>30.58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>513.98</v>
+      </c>
+      <c r="C2" s="3">
+        <f>(B2-B3)/100</f>
+        <v>0.44160000000000027</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2+C3/3</f>
+        <v>0.72080000000000022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44602</v>
+        <v>44238</v>
       </c>
       <c r="B3" s="2">
-        <v>26.71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>469.82</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C18" si="0">(B3-B4)/100</f>
+        <v>0.8375999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44238</v>
+        <v>43874</v>
       </c>
       <c r="B4" s="2">
-        <v>26.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>386.06</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0554000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43874</v>
+        <v>43511</v>
       </c>
       <c r="B5" s="2">
-        <v>27.83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>280.52</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47629999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43511</v>
+        <v>43144</v>
       </c>
       <c r="B6" s="2">
-        <v>13.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>232.89</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5501999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43144</v>
+        <v>42781</v>
       </c>
       <c r="B7" s="2">
-        <v>32.81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>177.87</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.41879999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>42781</v>
+        <v>42411</v>
       </c>
       <c r="B8" s="2">
-        <v>24.09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>135.99</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.28980000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>42411</v>
+        <v>42047</v>
       </c>
       <c r="B9" s="2">
-        <v>25.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>107.01</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18020000000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>42047</v>
+        <v>41684</v>
       </c>
       <c r="B10" s="2">
-        <v>22.86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>88.99</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14539999999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>41684</v>
+        <v>41326</v>
       </c>
       <c r="B11" s="2">
-        <v>17.66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>74.45</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>41326</v>
+        <v>40966</v>
       </c>
       <c r="B12" s="2">
-        <v>18.84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61.09</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13010000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>40966</v>
+        <v>40592</v>
       </c>
       <c r="B13" s="2">
-        <v>15.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48.08</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13879999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>40592</v>
+        <v>40231</v>
       </c>
       <c r="B14" s="2">
-        <v>15.93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>9.6900000000000014E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>40231</v>
+        <v>39863</v>
       </c>
       <c r="B15" s="2">
-        <v>16.489999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24.51</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>39863</v>
+        <v>39493</v>
       </c>
       <c r="B16" s="2">
-        <v>15.82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3300000000000019E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>39493</v>
+        <v>39133</v>
       </c>
       <c r="B17" s="2">
-        <v>20.350000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14.84</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1299999999999989E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>39133</v>
+        <v>38775</v>
       </c>
       <c r="B18" s="2">
-        <v>18.79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>38775</v>
-      </c>
-      <c r="B19" s="2">
-        <v>24.28</v>
+        <v>10.71</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10710000000000001</v>
       </c>
     </row>
   </sheetData>
